--- a/public/question-samples/multiple_choice_excel.xlsx
+++ b/public/question-samples/multiple_choice_excel.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web-mingo-project\test.adhyayanam.co.in\public\question-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913E9FE-89A3-497F-B3F3-041474AC0BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BBD47B-2899-4D91-9DD9-6257DC956A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Option A</t>
   </si>
@@ -85,6 +74,15 @@
   </si>
   <si>
     <t>question</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Option D (Round)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Option D (Round)</t>
   </si>
 </sst>
 </file>
@@ -440,23 +438,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="25.453125" customWidth="1"/>
+    <col min="8" max="8" width="36.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -481,8 +482,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -507,8 +511,11 @@
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -533,8 +540,11 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
     </row>
   </sheetData>

--- a/public/question-samples/multiple_choice_excel.xlsx
+++ b/public/question-samples/multiple_choice_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web-mingo-project\test.adhyayanam.co.in\public\question-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BBD47B-2899-4D91-9DD9-6257DC956A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642F2893-4828-414E-BC7C-4241BD57E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Option A</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Option D (Round)</t>
+  </si>
+  <si>
+    <t>PYQ</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +466,7 @@
     <col min="9" max="9" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -485,8 +494,11 @@
       <c r="I1" t="s">
         <v>18</v>
       </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -514,8 +526,11 @@
       <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -543,8 +558,11 @@
       <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
     </row>
   </sheetData>
